--- a/output_data/charts/shares-Region15.xlsx
+++ b/output_data/charts/shares-Region15.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -213,19 +213,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.808840654856939</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.962703779613242</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.156400444214484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.143965647961029</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.357864258765432</c:v>
+                  <c:v>0.005307132612157103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.005597409801687559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01272220373140426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01960051190004554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0316554370840497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +240,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +284,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24.16479001851452</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.45700753319227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.60973108078999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.05866331759285</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.6871827482229</c:v>
+                  <c:v>20.40760548573791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.45179844150037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5843233321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.92575025762666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.44240223270321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +311,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +355,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.073611675696812</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.924083349791418</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.146295933836698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.84831027151919</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.519721358305611</c:v>
+                  <c:v>4.488242068026634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.525768203248838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.790678938454318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.783600099893412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.886973890546608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +382,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +426,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.662370838548006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.620712516172993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.504695307471279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46081795545358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.602898533345868</c:v>
+                  <c:v>16.02727513208384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.76720373512864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.76845630517493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.72949103597592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.93006221907919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +453,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +497,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.65574931089923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.64233776404292</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.12921704085624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.670258369171325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.17703796716485</c:v>
+                  <c:v>2.899994163703036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.895784977091798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.661864575862984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.741949360136174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.842878267068127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +524,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +568,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.43577570283831</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.366553382437207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.268868206497778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.267798624294935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.176296433240481</c:v>
+                  <c:v>0.3704378164826141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3804489079786081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3667466310098835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.349794548474876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3450266544736593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +595,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +639,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3704378164826141</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3804489079786081</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3667466310098835</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.349794548474876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3450266544736593</c:v>
+                  <c:v>8.43577570283831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.366553382437207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.268868206497778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.267798624294935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.176296433240481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +666,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +710,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.899994163703036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.895784977091798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.661864575862984</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.741949360136174</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.842878267068127</c:v>
+                  <c:v>10.65574931089923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.64233776404292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.12921704085624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.670258369171325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.17703796716485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +737,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +781,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.02727513208384</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.76720373512864</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.76845630517493</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.72949103597592</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.93006221907919</c:v>
+                  <c:v>1.662370838548006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.620712516172993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.504695307471279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.46081795545358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.602898533345868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +808,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +852,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.488242068026634</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.525768203248838</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.790678938454318</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.783600099893412</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.886973890546608</c:v>
+                  <c:v>7.073611675696812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.924083349791418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.146295933836698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.84831027151919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.519721358305611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +879,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +923,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.40760548573791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.45179844150037</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.5843233321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.92575025762666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.44240223270321</c:v>
+                  <c:v>24.16479001851452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.45700753319227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.60973108078999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.05866331759285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.6871827482229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +950,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -994,19 +994,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.005307132612157103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.005597409801687559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01272220373140426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01960051190004554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0316554370840497</c:v>
+                  <c:v>3.808840654856939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.962703779613242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.156400444214484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.143965647961029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.357864258765432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1051,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1123,15 +1122,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1445,19 +1444,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1506,40 +1493,40 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
+        <v>0.005307132612157103</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20.40760548573791</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.488242068026634</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16.02727513208384</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.899994163703036</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.3704378164826141</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8.43577570283831</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10.65574931089923</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.662370838548006</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7.073611675696812</v>
+      </c>
+      <c r="L2" s="1">
+        <v>24.16479001851452</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.808840654856939</v>
-      </c>
-      <c r="C2" s="1">
-        <v>24.16479001851452</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.073611675696812</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.662370838548006</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10.65574931089923</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8.43577570283831</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.3704378164826141</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.899994163703036</v>
-      </c>
-      <c r="J2" s="1">
-        <v>16.02727513208384</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4.488242068026634</v>
-      </c>
-      <c r="L2" s="1">
-        <v>20.40760548573791</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.005307132612157103</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1547,40 +1534,40 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1">
+        <v>0.005597409801687559</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20.45179844150037</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.525768203248838</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15.76720373512864</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.895784977091798</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.3804489079786081</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.366553382437207</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10.64233776404292</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.620712516172993</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.924083349791418</v>
+      </c>
+      <c r="L3" s="1">
+        <v>24.45700753319227</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.962703779613242</v>
-      </c>
-      <c r="C3" s="1">
-        <v>24.45700753319227</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.924083349791418</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.620712516172993</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10.64233776404292</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8.366553382437207</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.3804489079786081</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.895784977091798</v>
-      </c>
-      <c r="J3" s="1">
-        <v>15.76720373512864</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4.525768203248838</v>
-      </c>
-      <c r="L3" s="1">
-        <v>20.45179844150037</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.005597409801687559</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1588,40 +1575,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0.01272220373140426</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21.5843233321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.790678938454318</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15.76845630517493</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.661864575862984</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.3667466310098835</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.268868206497778</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.12921704085624</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.504695307471279</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.146295933836698</v>
+      </c>
+      <c r="L4" s="1">
+        <v>24.60973108078999</v>
+      </c>
+      <c r="M4" s="1">
         <v>4.156400444214484</v>
-      </c>
-      <c r="C4" s="1">
-        <v>24.60973108078999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.146295933836698</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.504695307471279</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.12921704085624</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8.268868206497778</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.3667466310098835</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.661864575862984</v>
-      </c>
-      <c r="J4" s="1">
-        <v>15.76845630517493</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4.790678938454318</v>
-      </c>
-      <c r="L4" s="1">
-        <v>21.5843233321</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.01272220373140426</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1629,40 +1616,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0.01960051190004554</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21.92575025762666</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.783600099893412</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15.72949103597592</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.741949360136174</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.349794548474876</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.267798624294935</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.670258369171325</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.46081795545358</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.84831027151919</v>
+      </c>
+      <c r="L5" s="1">
+        <v>24.05866331759285</v>
+      </c>
+      <c r="M5" s="1">
         <v>4.143965647961029</v>
-      </c>
-      <c r="C5" s="1">
-        <v>24.05866331759285</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.84831027151919</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.46081795545358</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9.670258369171325</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8.267798624294935</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.349794548474876</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.741949360136174</v>
-      </c>
-      <c r="J5" s="1">
-        <v>15.72949103597592</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.783600099893412</v>
-      </c>
-      <c r="L5" s="1">
-        <v>21.92575025762666</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.01960051190004554</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1670,40 +1657,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.0316554370840497</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21.44240223270321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.886973890546608</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15.93006221907919</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.842878267068127</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.3450266544736593</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.176296433240481</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10.17703796716485</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.602898533345868</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.519721358305611</v>
+      </c>
+      <c r="L6" s="1">
+        <v>23.6871827482229</v>
+      </c>
+      <c r="M6" s="1">
         <v>4.357864258765432</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23.6871827482229</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.519721358305611</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.602898533345868</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10.17703796716485</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8.176296433240481</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.3450266544736593</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.842878267068127</v>
-      </c>
-      <c r="J6" s="1">
-        <v>15.93006221907919</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4.886973890546608</v>
-      </c>
-      <c r="L6" s="1">
-        <v>21.44240223270321</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.0316554370840497</v>
       </c>
     </row>
   </sheetData>
